--- a/Codes/GS_weights_3.xlsx
+++ b/Codes/GS_weights_3.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duong Hung\Google Drive\Fatality crashes\Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DuongHung\OneDrive - University Of Houston\RA\VCA_ID\Fatality crashes\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF2C43-B831-41C3-90CC-C5C6DEC60361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2DFF2C43-B831-41C3-90CC-C5C6DEC60361}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C0091478-08C3-48C1-907D-DCD453B24E12}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$37</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -577,6 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -642,7 +646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -695,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>33</v>
       </c>
@@ -748,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -801,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>32</v>
       </c>
@@ -854,7 +858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>34</v>
       </c>
@@ -960,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>31</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>29</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -1861,7 +1865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -2551,6 +2555,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q37" xr:uid="{C0CF7F79-DC8B-47CD-810F-EC67C2C2D19F}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2048"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q37">
     <sortCondition descending="1" ref="O2:O37"/>
   </sortState>
